--- a/bots/crawl_ch/output/bread_coop_2022-12-07.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-12-07.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -5500,7 +5500,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -5638,7 +5638,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -6068,7 +6068,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -6214,7 +6214,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -6360,7 +6360,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -6429,7 +6429,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -6498,7 +6498,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -6567,7 +6567,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -6705,7 +6705,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -6843,7 +6843,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -7131,7 +7131,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -7273,7 +7273,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -7346,7 +7346,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -7419,7 +7419,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -7630,7 +7630,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -7695,7 +7695,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -7768,7 +7768,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -7910,7 +7910,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -7979,7 +7979,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -8267,7 +8267,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -8478,7 +8478,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -8547,7 +8547,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -8620,7 +8620,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -8762,7 +8762,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -8908,7 +8908,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -8977,7 +8977,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -9050,7 +9050,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -9119,7 +9119,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -9192,7 +9192,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -9334,7 +9334,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -9403,7 +9403,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -9476,7 +9476,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -9549,7 +9549,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -9618,7 +9618,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -9687,7 +9687,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -9756,7 +9756,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -9829,7 +9829,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -9898,7 +9898,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -10040,7 +10040,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -10113,7 +10113,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -10182,7 +10182,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -10255,7 +10255,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -10324,7 +10324,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -10393,7 +10393,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -10462,7 +10462,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -10535,7 +10535,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -10608,7 +10608,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -10754,7 +10754,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -10823,7 +10823,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10896,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -10965,7 +10965,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -11034,7 +11034,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -11103,7 +11103,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -11176,7 +11176,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -11322,7 +11322,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -11460,7 +11460,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -11529,7 +11529,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -11602,7 +11602,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -11671,7 +11671,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -11740,7 +11740,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -11813,7 +11813,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -11955,7 +11955,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -12028,7 +12028,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -12097,7 +12097,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -12170,7 +12170,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -12239,7 +12239,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -12308,7 +12308,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -12377,7 +12377,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -12450,7 +12450,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -12592,7 +12592,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -12661,7 +12661,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -12734,7 +12734,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -12803,7 +12803,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -12949,7 +12949,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -13022,7 +13022,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -13091,7 +13091,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -13164,7 +13164,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -13237,7 +13237,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -13306,7 +13306,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -13379,7 +13379,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -13448,7 +13448,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -13517,7 +13517,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -13586,7 +13586,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -13659,7 +13659,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -13732,7 +13732,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -13805,7 +13805,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -13874,7 +13874,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -13947,7 +13947,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -14020,7 +14020,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -14093,7 +14093,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -14166,7 +14166,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -14239,7 +14239,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -14312,7 +14312,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -14381,7 +14381,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -14450,7 +14450,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -14523,7 +14523,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -14592,7 +14592,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -14661,7 +14661,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -14732,7 +14732,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -14801,7 +14801,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -14870,7 +14870,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -14939,7 +14939,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -15008,7 +15008,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -15077,7 +15077,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -15146,7 +15146,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -15215,7 +15215,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -15288,7 +15288,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -15361,7 +15361,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -15432,7 +15432,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -15501,7 +15501,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -15574,7 +15574,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -15647,7 +15647,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -15720,7 +15720,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -15793,7 +15793,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -15866,7 +15866,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -15935,7 +15935,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -16008,7 +16008,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -16081,7 +16081,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -16154,7 +16154,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -16223,7 +16223,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -16292,7 +16292,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -16361,7 +16361,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -16430,7 +16430,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -16503,7 +16503,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -16572,7 +16572,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -16641,7 +16641,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -16710,7 +16710,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -16779,7 +16779,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -16852,7 +16852,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -16921,7 +16921,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -16990,7 +16990,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -17063,7 +17063,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -17132,7 +17132,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -17201,7 +17201,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -17268,7 +17268,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -17341,7 +17341,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -17410,7 +17410,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -17479,7 +17479,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -17548,7 +17548,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -17621,7 +17621,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -17694,7 +17694,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -17767,7 +17767,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -17836,7 +17836,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -17909,7 +17909,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -17982,7 +17982,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -18055,7 +18055,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -18124,7 +18124,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -18197,7 +18197,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -18266,7 +18266,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -18335,7 +18335,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -18408,7 +18408,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -18475,7 +18475,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -18548,7 +18548,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -18621,7 +18621,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -18690,7 +18690,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -18759,7 +18759,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -18832,7 +18832,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -18905,7 +18905,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -18974,7 +18974,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -19043,7 +19043,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -19112,7 +19112,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -19181,7 +19181,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -19250,7 +19250,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -19323,7 +19323,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -19396,7 +19396,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -19465,7 +19465,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -19536,7 +19536,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -19605,7 +19605,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -19674,7 +19674,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -19743,7 +19743,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -19814,7 +19814,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -19883,7 +19883,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -19956,7 +19956,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -20029,7 +20029,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -20098,7 +20098,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -20171,7 +20171,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -20244,7 +20244,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -20317,7 +20317,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -20390,7 +20390,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -20459,7 +20459,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -20532,7 +20532,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -20605,7 +20605,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -20672,7 +20672,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -20745,7 +20745,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -20814,7 +20814,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -20883,7 +20883,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -20956,7 +20956,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -21025,7 +21025,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -21094,7 +21094,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -21167,7 +21167,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -21240,7 +21240,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -21313,7 +21313,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -21386,7 +21386,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -21455,7 +21455,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -21528,7 +21528,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -21601,7 +21601,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -21670,7 +21670,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -21743,7 +21743,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -21816,7 +21816,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -21889,7 +21889,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -21962,7 +21962,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -22035,7 +22035,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -22104,7 +22104,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -22173,7 +22173,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -22242,7 +22242,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -22315,7 +22315,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -22384,7 +22384,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -22453,7 +22453,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -22526,7 +22526,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -22595,7 +22595,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -22668,7 +22668,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -22737,7 +22737,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -22810,7 +22810,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -22879,7 +22879,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -22952,7 +22952,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -23021,7 +23021,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -23094,7 +23094,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -23163,7 +23163,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -23232,7 +23232,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -23301,7 +23301,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -23374,7 +23374,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -23447,7 +23447,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -23520,7 +23520,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -23589,7 +23589,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -23658,7 +23658,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -23727,7 +23727,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -23796,7 +23796,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -23869,7 +23869,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -23938,7 +23938,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -24011,7 +24011,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -24078,7 +24078,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -24147,7 +24147,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -24216,7 +24216,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -24285,7 +24285,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -24354,7 +24354,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -24423,7 +24423,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -24496,7 +24496,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -24569,7 +24569,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -24638,7 +24638,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -24707,7 +24707,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -24780,7 +24780,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -24849,7 +24849,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -24916,7 +24916,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -24985,7 +24985,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -25054,7 +25054,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -25127,7 +25127,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -25196,7 +25196,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -25269,7 +25269,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -25338,7 +25338,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -25407,7 +25407,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -25476,7 +25476,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -25545,7 +25545,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -25618,7 +25618,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -25691,7 +25691,7 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -25760,7 +25760,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -25829,7 +25829,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -25898,7 +25898,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -25965,7 +25965,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -26034,7 +26034,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -26103,7 +26103,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -26172,7 +26172,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -26241,7 +26241,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -26310,7 +26310,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -26379,7 +26379,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -26448,7 +26448,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -26517,7 +26517,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -26590,7 +26590,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -26657,7 +26657,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -26726,7 +26726,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -26795,7 +26795,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -26868,7 +26868,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -26937,7 +26937,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -27006,7 +27006,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -27073,7 +27073,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -27142,7 +27142,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -27215,7 +27215,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -27288,7 +27288,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -27361,7 +27361,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -27432,7 +27432,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -27501,7 +27501,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -27574,7 +27574,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -27643,7 +27643,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -27716,7 +27716,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -27787,7 +27787,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -27860,7 +27860,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -27929,7 +27929,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -28000,7 +28000,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -28069,7 +28069,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -28142,7 +28142,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -28215,7 +28215,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -28286,7 +28286,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -28359,7 +28359,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -28428,7 +28428,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -28497,7 +28497,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -28566,7 +28566,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -28633,7 +28633,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -28702,7 +28702,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -28771,7 +28771,7 @@
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -28840,7 +28840,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -28907,7 +28907,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -28976,7 +28976,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -29049,7 +29049,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -29120,7 +29120,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -29187,7 +29187,7 @@
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -29256,7 +29256,7 @@
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -29325,7 +29325,7 @@
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -29392,7 +29392,7 @@
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -29459,7 +29459,7 @@
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -29532,7 +29532,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -29605,7 +29605,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -29676,7 +29676,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
@@ -29743,7 +29743,7 @@
       <c r="N414" t="inlineStr"/>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2022-12-07 13:23:38</t>
+          <t>2022-12-07 13:35:54</t>
         </is>
       </c>
     </row>
